--- a/birthdays.xlsx
+++ b/birthdays.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1105,6 +1105,28 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>762085328642244648</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Ashy boi &lt;3#7472</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/birthdays.xlsx
+++ b/birthdays.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1127,6 +1127,72 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>398898064313548820</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Leboge#3392</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>338028125269000199</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Reptile#9182</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>552891291357282304</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Cyber#5379</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/birthdays.xlsx
+++ b/birthdays.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1193,6 +1193,28 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>421837462047031297</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Dkal#4012</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/birthdays.xlsx
+++ b/birthdays.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1215,6 +1215,50 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>829153199624552529</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>cloiebug#3638</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>709011562941382686</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Couchbean#0909</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/birthdays.xlsx
+++ b/birthdays.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,6 +1259,28 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>810819517734584333</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SilentScorpio™#7451</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/birthdays.xlsx
+++ b/birthdays.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,6 +1281,94 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>726950463366365225</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>[AFK]Saiko#9337</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>597025341512351765</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Mikivelo#5076</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>686421206680731649</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>𝚎𝚖𝚎𝚛𝚒#5346</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>611234050589327361</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>WaffleSniper1#1073</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/birthdays.xlsx
+++ b/birthdays.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1369,6 +1369,270 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>411683536026992641</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>ChitsyFreemo#6587</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>760224952539807795</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Darth Jax#2824</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>801176326039011359</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>weehehe#6437</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>732879948645269586</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Skylurk#4349</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>789942934728212583</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>🏹𝓐𝓻𝓻𝓸𝔀🏹#5840</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>704391930334937169</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Queer.emo666#1787</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>723466293998518292</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>MiniRebel(Moose)#3182</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>805758896773398538</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>pumpkin (they/she)#1231</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>737699384741068801</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Gayming Deer#3446</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>755895080757493886</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>AsleepInTheBathtub#1393</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>820693593785237535</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>vampire#3465</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>716155337492660256</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>ツ𝕮𝖔𝖋𝖋𝖊𝖊𝕮𝖚𝖕𝕺𝖋𝕯𝖗𝖊𝖆𝖒𝖘ツ™#1458</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/birthdays.xlsx
+++ b/birthdays.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1633,6 +1633,50 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>812811776110231614</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Tinylee63#2664</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>530399924685111306</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>miss hamster police#9966</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
